--- a/Vtigerv2/src/test/resources/data/Testdata.xlsx
+++ b/Vtigerv2/src/test/resources/data/Testdata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{43E6FF72-29CA-4068-AA95-78E4DEFED08C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15570" windowHeight="2760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="contact" sheetId="1" r:id="rId1"/>
+    <sheet name="oppurtunity" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <oleSize ref="C1:O7"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,12 +21,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>shakuntala</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>edit lastname</t>
+  </si>
+  <si>
+    <t>gowda</t>
+  </si>
+  <si>
+    <t>opportunity name</t>
+  </si>
+  <si>
+    <t>megasale</t>
+  </si>
+  <si>
+    <t>opp0rtunity name</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>prime deal</t>
+  </si>
+  <si>
+    <t>contact1</t>
+  </si>
+  <si>
+    <t>contact2</t>
+  </si>
+  <si>
+    <t>mishti</t>
+  </si>
+  <si>
+    <t>kuhu</t>
+  </si>
+  <si>
+    <t>conatct1</t>
+  </si>
+  <si>
+    <t>abeer</t>
+  </si>
+  <si>
+    <t>kunal</t>
+  </si>
+  <si>
+    <t>affan</t>
+  </si>
+  <si>
+    <t>editlastname</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>deletecontact</t>
+  </si>
+  <si>
+    <t>createorganisation</t>
+  </si>
+  <si>
+    <t>unacademy</t>
+  </si>
+  <si>
+    <t>sony</t>
+  </si>
+  <si>
+    <t>symphony</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>catalysy</t>
+  </si>
+  <si>
+    <t>catalyst</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -158,7 +252,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -335,37 +429,207 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>